--- a/cookups_posts.xlsx
+++ b/cookups_posts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>Cook</t>
   </si>
@@ -68,25 +68,25 @@
     <t>Growups</t>
   </si>
   <si>
-    <t>03/10/2018 19:19</t>
-  </si>
-  <si>
-    <t>Suborno Vegetables: Deshi Cooking Combo - Growups Grocers - Tue &amp; Wed 9 &amp; 10 Oct.</t>
+    <t>02/10/2018 13:26</t>
+  </si>
+  <si>
+    <t>রসগজা পিঠা - Afroza K. - Thu &amp; Fri 4 &amp; 5 Oct.</t>
   </si>
   <si>
     <t>Dhaka, Bangladesh</t>
   </si>
   <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>To order/view details: Tue, 9 Oct: https://cookups.com.bd/offers/12845 Wed, 10 Oct: https://cookups.com.bd/offers/12846  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
-  </si>
-  <si>
-    <t>['https://cookups.com.bd/offers/12845', 'https://cookups.com.bd/offers/12846']</t>
-  </si>
-  <si>
-    <t>https://cookupsapp.s3.amazonaws.com/media/334fe47c-f21f-4b38-8b09-1ffb76f3e713.jpg</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>To order/view details: Thu, 4 Oct: https://cookups.com.bd/offers/12717 Fri, 5 Oct: https://cookups.com.bd/offers/12718 Cook: Afroza Kajol 33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October. *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12717', 'https://cookups.com.bd/offers/12718']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/5be9bdb0-3317-4b24-88ea-1011842e22d5.jpg</t>
   </si>
   <si>
     <t>Sablima Sadat Anuja</t>
@@ -113,6 +113,42 @@
     <t>https://cookupsapp.s3.amazonaws.com/media/5a93f21d-448f-42c4-b3c5-38a79c8d85f4.jpg</t>
   </si>
   <si>
+    <t>03/10/2018 19:46</t>
+  </si>
+  <si>
+    <t>Mugh Daal : Sufola - Growups Grocers - Mon, Tue, wed 8, 9, 10 Oct.</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>To order/view details: Mon, 8 Oct: https://cookups.com.bd/offers/12860 Tue, 9 Oct: https://cookups.com.bd/offers/12861 Wed, 10 Oct: https://cookups.com.bd/offers/12862  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12860', 'https://cookups.com.bd/offers/12861', 'https://cookups.com.bd/offers/12862']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/11ff98f6-1f04-4397-8b58-6bb3e6b1e22f.jpg</t>
+  </si>
+  <si>
+    <t>03/10/2018 19:43</t>
+  </si>
+  <si>
+    <t>NV Cosmetics: Sundarban Kholisha Honey - Growups Grocers- Mon, Tue, Wed 8, 9, 10 Oct</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>To order/view details: Mon, 8 Oct: https://cookups.com.bd/offers/12857 Tue, 9 Oct: https://cookups.com.bd/offers/12858 Wed, 10 Oct: https://cookups.com.bd/offers/12859  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12857', 'https://cookups.com.bd/offers/12858', 'https://cookups.com.bd/offers/12859']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/326dd0db-1745-4aa0-81cb-906830b9c360.jpg</t>
+  </si>
+  <si>
     <t>Nadia Omar</t>
   </si>
   <si>
@@ -158,6 +194,60 @@
     <t>https://cookupsapp.s3.amazonaws.com/media/5e2ab0b4-30c7-49d3-bf2f-65ceed08fe0c.jpg</t>
   </si>
   <si>
+    <t>03/10/2018 19:40</t>
+  </si>
+  <si>
+    <t>NV Cosmetics:Yes Mustard ‘Mustard oil’ - Growups Grocers- Mon, Tue, Wed 8, 9, 10 Oct</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>To order/view details: Mon, 8 Oct: https://cookups.com.bd/offers/12854 Tue, 9 Oct: https://cookups.com.bd/offers/12855 Wed, 10 Oct: https://cookups.com.bd/offers/12856  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12854', 'https://cookups.com.bd/offers/12855', 'https://cookups.com.bd/offers/12856']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/28750548-969d-47e8-851e-cb5f1a1c5df0.jpg</t>
+  </si>
+  <si>
+    <t>03/10/2018 19:36</t>
+  </si>
+  <si>
+    <t>NV Cosmetics: Onion scalp oil - Growups Grocers - Tue &amp; Wed 9 &amp; 10 Oct</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>To order/view details: Tue, 9 Oct: https://cookups.com.bd/offers/12852 Wed, 10 Oct: https://cookups.com.bd/offers/12853  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12852', 'https://cookups.com.bd/offers/12853']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/2c3c47cc-db34-4a1d-a70a-faaf82a20009.jpg</t>
+  </si>
+  <si>
+    <t>03/10/2018 19:32</t>
+  </si>
+  <si>
+    <t>Suborno Vegetables: Chinese/Asian Cooking Combo - Growups Grocers - Mon , Tue , Wed 8, 9, 10 Oct</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>To order/view details: Mon, 8 Oct: https://cookups.com.bd/offers/12849 Tue, 9 Oct: https://cookups.com.bd/offers/12850 Wed, 10 Oct: https://cookups.com.bd/offers/12851  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12849', 'https://cookups.com.bd/offers/12850', 'https://cookups.com.bd/offers/12851']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/9b64a9b4-c9af-4a12-8094-6fadbe9a0ef5.jpg</t>
+  </si>
+  <si>
     <t>Anasua Chowdhury</t>
   </si>
   <si>
@@ -182,28 +272,55 @@
     <t>https://cookupsapp.s3.amazonaws.com/media/3d1ab7d1-ac5d-423e-b67e-fab0c06ff2c5.jpg</t>
   </si>
   <si>
-    <t>Sayeed Sohrab Watin</t>
-  </si>
-  <si>
-    <t>30/09/2018 12:23</t>
-  </si>
-  <si>
-    <t>Halawet El Jibn (Sweetness of Cheese)- Oct 6.Sat</t>
-  </si>
-  <si>
-    <t>Bijoy Sarani</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>To order/view details: Sat, 6 Oct: https://cookups.com.bd/offers/12596 ... 33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance.</t>
-  </si>
-  <si>
-    <t>['https://cookups.com.bd/offers/12596']</t>
-  </si>
-  <si>
-    <t>https://cookupsapp.s3.amazonaws.com/media/c34e614c-33f3-4880-916b-e14cf88c804f.jpg</t>
+    <t>03/10/2018 19:24</t>
+  </si>
+  <si>
+    <t>Deshi Cooking Combo 2 - Growups Grocers - Tue &amp; Wed 9 &amp; 10 Oct</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>To order/view details: Tue, 9 Oct: https://cookups.com.bd/offers/12847 Wed, 10 Oct: https://cookups.com.bd/offers/12848  33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October.  *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance. Download the app: iOS: goo.gl/ZHXgBVtd Android: goo.gl/tp4z4U</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12847', 'https://cookups.com.bd/offers/12848']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/c96f5ab7-a57c-45cf-bb14-d8e06c3a88e0.jpg</t>
+  </si>
+  <si>
+    <t>01/10/2018 13:03</t>
+  </si>
+  <si>
+    <t>Khati Gawa Ghee: Shashyaprabartana: - Growups Grocers - Sat - Mon 6-8</t>
+  </si>
+  <si>
+    <t>To order/view details: Sat, 6 Oct: https://cookups.com.bd/offers/12672 Sun, 7 Oct: https://cookups.com.bd/offers/12673 Mon, 8 Oct: https://cookups.com.bd/offers/12674 33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October. Location: Gulshan 2 *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Deliveries are within 36 hours. App Download Links: iOS: goo.gl/ZHXgBV Android: goo.gl/tp4z4U Cancellation: at least 12 hours in advance.</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12672', 'https://cookups.com.bd/offers/12673', 'https://cookups.com.bd/offers/12674']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/f8660add-42df-4fd4-9596-c339b7b5a540.jpg</t>
+  </si>
+  <si>
+    <t>Arshia Karim</t>
+  </si>
+  <si>
+    <t>02/10/2018 14:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutton Tehari combo available on Saturday 6th October </t>
+  </si>
+  <si>
+    <t>I am offering my popular combo again with a little change in the item. To order/view details: Sat, 6 Oct: https://cookups.com.bd/offers/12749 33% DISCOUNT ON DELIVERY ON EVERYTHING! Valid between 1st to 4th October. *Banasri, Khilgaon, Jatrabari, Old Town, Motijheel, and deliveries outside 10 km are outside delivery zone. Cancellation: at least 12 hours in advance.</t>
+  </si>
+  <si>
+    <t>['https://cookups.com.bd/offers/12749']</t>
+  </si>
+  <si>
+    <t>https://cookupsapp.s3.amazonaws.com/media/864bbd33-bf19-4ccc-adab-0564a41961ea.jpg</t>
   </si>
 </sst>
 </file>
@@ -539,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,106 +770,285 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F9" t="s">
         <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
